--- a/biology/Zoologie/Histoire_évolutive_des_insectes/Histoire_évolutive_des_insectes.xlsx
+++ b/biology/Zoologie/Histoire_évolutive_des_insectes/Histoire_évolutive_des_insectes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Histoire_%C3%A9volutive_des_insectes</t>
+          <t>Histoire_évolutive_des_insectes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’histoire évolutive des insectes a livré peu de fossiles. Parmi les Arthropodes, les insectes sont plus proches des Crustacés, avec lesquels ils forment les Pancrustacés.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Histoire_%C3%A9volutive_des_insectes</t>
+          <t>Histoire_évolutive_des_insectes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les insectes étaient autrefois rapprochés des Myriapodes, dont les mille-pattes et les centipèdes. Les insectes et les Myriapodes partageant la présence d'appendices uniramés, la présence de trachées, de tubes de Malpighi, de mandibules formées d'un appendice complet (et non pas de la base d'un appendice comme chez les Crustacés), on a par conséquent longtemps pensé qu'ils avaient un ancêtre commun présentant ces caractères, mais on pense désormais que ces traits sont apparus par convergence évolutive[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les insectes étaient autrefois rapprochés des Myriapodes, dont les mille-pattes et les centipèdes. Les insectes et les Myriapodes partageant la présence d'appendices uniramés, la présence de trachées, de tubes de Malpighi, de mandibules formées d'un appendice complet (et non pas de la base d'un appendice comme chez les Crustacés), on a par conséquent longtemps pensé qu'ils avaient un ancêtre commun présentant ces caractères, mais on pense désormais que ces traits sont apparus par convergence évolutive.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Histoire_%C3%A9volutive_des_insectes</t>
+          <t>Histoire_évolutive_des_insectes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La notion de Pancrustacés doit beaucoup à la phylogénie moléculaire[2],[3], à l'arrangement des gènes mitochondriaux[4] et à l'analyse cladistique des caractères, qui ont conduit à considérer les insectes comme issus de la même lignée que les Crustacés : le clade des pancrustacés est établi à la suite de ces découvertes. Il contient les lignées de crustacés marins qui sont probablement paraphylétiques et les insectes proprement dits, qui sont monophylétiques. Les caractères rapprochant les insectes et les Myriapodes sont donc probablement des convergences évolutives associées à l'adaptation au milieu terrestre (encore inféodés aux milieux humides, les insectes font en effet partie des premiers arthropodes à progressivement sortir des eaux pour devenir réellement terrestres au cours du Dévonien, cette « terrestrialisation » concernant plusieurs lignées de manière indépendante[5]. Le développement du système nerveux des insectes et des Crustacés possède en revanche des similitudes extrêmement frappantes[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La notion de Pancrustacés doit beaucoup à la phylogénie moléculaire à l'arrangement des gènes mitochondriaux et à l'analyse cladistique des caractères, qui ont conduit à considérer les insectes comme issus de la même lignée que les Crustacés : le clade des pancrustacés est établi à la suite de ces découvertes. Il contient les lignées de crustacés marins qui sont probablement paraphylétiques et les insectes proprement dits, qui sont monophylétiques. Les caractères rapprochant les insectes et les Myriapodes sont donc probablement des convergences évolutives associées à l'adaptation au milieu terrestre (encore inféodés aux milieux humides, les insectes font en effet partie des premiers arthropodes à progressivement sortir des eaux pour devenir réellement terrestres au cours du Dévonien, cette « terrestrialisation » concernant plusieurs lignées de manière indépendante. Le développement du système nerveux des insectes et des Crustacés possède en revanche des similitudes extrêmement frappantes.
 </t>
         </is>
       </c>
